--- a/datalin/data/Relations - 2019-03-01.xlsx
+++ b/datalin/data/Relations - 2019-03-01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="-15" windowWidth="36825" windowHeight="18750"/>
+    <workbookView xWindow="1335" yWindow="-15" windowWidth="36825" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Relations" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="Entity" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Nodes!$A$1:$E$1004</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Apps!$A$1:$C$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Nodes!$A$1:$E$1001</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Relations!$A$1:$D$1224</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8115" uniqueCount="1279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8107" uniqueCount="1283">
   <si>
     <t>ENTITY</t>
   </si>
@@ -3859,18 +3860,38 @@
   </si>
   <si>
     <t>Function</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Owner Name</t>
+  </si>
+  <si>
+    <t>Contact Email</t>
+  </si>
+  <si>
+    <t>Is Bi ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3925,18 +3946,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -4252,8 +4275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1182" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I1207" sqref="I1207"/>
+    <sheetView topLeftCell="A1190" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1200" sqref="D1200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19676,17 +19699,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1004"/>
+  <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A946" workbookViewId="0">
-      <selection activeCell="K995" sqref="K995"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A995" sqref="A995"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.42578125" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="82.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30519,135 +30544,135 @@
         <v>280</v>
       </c>
       <c r="E722" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C723" s="2"/>
       <c r="D723" s="2" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E723" s="2" t="s">
-        <v>271</v>
+        <v>4</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" s="2" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="C724" s="2"/>
       <c r="D724" s="2" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E724" s="2" t="s">
-        <v>271</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="2" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="C725" s="2"/>
       <c r="D725" s="2" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E725" s="2" t="s">
-        <v>271</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C726" s="2"/>
       <c r="D726" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E726" s="2" t="s">
-        <v>4</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="s">
-        <v>470</v>
+        <v>1184</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>470</v>
+        <v>1184</v>
       </c>
       <c r="C727" s="2"/>
       <c r="D727" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E727" s="2" t="s">
-        <v>1176</v>
+        <v>4</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" s="2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C728" s="2"/>
       <c r="D728" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E728" s="2" t="s">
-        <v>1176</v>
+        <v>21</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="2" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C729" s="2"/>
       <c r="D729" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E729" s="2" t="s">
-        <v>1176</v>
+        <v>21</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="s">
-        <v>1184</v>
+        <v>482</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>1184</v>
+        <v>482</v>
       </c>
       <c r="C730" s="2"/>
       <c r="D730" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E730" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="2" t="s">
-        <v>478</v>
+        <v>1024</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>478</v>
+        <v>1024</v>
       </c>
       <c r="C731" s="2"/>
       <c r="D731" s="2" t="s">
@@ -30659,10 +30684,10 @@
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" s="2" t="s">
-        <v>480</v>
+        <v>1025</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>480</v>
+        <v>1025</v>
       </c>
       <c r="C732" s="2"/>
       <c r="D732" s="2" t="s">
@@ -30674,10 +30699,10 @@
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="s">
-        <v>482</v>
+        <v>1026</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>482</v>
+        <v>1026</v>
       </c>
       <c r="C733" s="2"/>
       <c r="D733" s="2" t="s">
@@ -30689,10 +30714,10 @@
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" s="2" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="C734" s="2"/>
       <c r="D734" s="2" t="s">
@@ -30704,10 +30729,10 @@
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" s="2" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="C735" s="2"/>
       <c r="D735" s="2" t="s">
@@ -30719,10 +30744,10 @@
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" s="2" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="C736" s="2"/>
       <c r="D736" s="2" t="s">
@@ -30734,10 +30759,10 @@
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" s="2" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="C737" s="2"/>
       <c r="D737" s="2" t="s">
@@ -30749,10 +30774,10 @@
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C738" s="2"/>
       <c r="D738" s="2" t="s">
@@ -30764,10 +30789,10 @@
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" s="2" t="s">
-        <v>1031</v>
+        <v>494</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>1031</v>
+        <v>494</v>
       </c>
       <c r="C739" s="2"/>
       <c r="D739" s="2" t="s">
@@ -30779,10 +30804,10 @@
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" s="2" t="s">
-        <v>1030</v>
+        <v>498</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>1030</v>
+        <v>498</v>
       </c>
       <c r="C740" s="2"/>
       <c r="D740" s="2" t="s">
@@ -30794,10 +30819,10 @@
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" s="2" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="C741" s="2"/>
       <c r="D741" s="2" t="s">
@@ -30809,10 +30834,10 @@
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" s="2" t="s">
-        <v>494</v>
+        <v>1177</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>494</v>
+        <v>1177</v>
       </c>
       <c r="C742" s="2"/>
       <c r="D742" s="2" t="s">
@@ -30824,10 +30849,10 @@
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="2" t="s">
-        <v>498</v>
+        <v>1178</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>498</v>
+        <v>1178</v>
       </c>
       <c r="C743" s="2"/>
       <c r="D743" s="2" t="s">
@@ -30839,10 +30864,10 @@
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" s="2" t="s">
-        <v>1032</v>
+        <v>1179</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>1032</v>
+        <v>1179</v>
       </c>
       <c r="C744" s="2"/>
       <c r="D744" s="2" t="s">
@@ -30854,10 +30879,10 @@
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="2" t="s">
-        <v>1177</v>
+        <v>1185</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>1177</v>
+        <v>1185</v>
       </c>
       <c r="C745" s="2"/>
       <c r="D745" s="2" t="s">
@@ -30869,10 +30894,10 @@
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="2" t="s">
-        <v>1178</v>
+        <v>1186</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>1178</v>
+        <v>1186</v>
       </c>
       <c r="C746" s="2"/>
       <c r="D746" s="2" t="s">
@@ -30884,10 +30909,10 @@
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" s="2" t="s">
-        <v>1179</v>
+        <v>1187</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>1179</v>
+        <v>1187</v>
       </c>
       <c r="C747" s="2"/>
       <c r="D747" s="2" t="s">
@@ -30899,10 +30924,10 @@
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" s="2" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="C748" s="2"/>
       <c r="D748" s="2" t="s">
@@ -30914,10 +30939,10 @@
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" s="2" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="C749" s="2"/>
       <c r="D749" s="2" t="s">
@@ -30929,10 +30954,10 @@
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" s="2" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="C750" s="2"/>
       <c r="D750" s="2" t="s">
@@ -30944,10 +30969,10 @@
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" s="2" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="C751" s="2"/>
       <c r="D751" s="2" t="s">
@@ -30959,10 +30984,10 @@
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" s="2" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="C752" s="2"/>
       <c r="D752" s="2" t="s">
@@ -30974,25 +30999,25 @@
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" s="2" t="s">
-        <v>1190</v>
+        <v>1274</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>1190</v>
+        <v>1274</v>
       </c>
       <c r="C753" s="2"/>
       <c r="D753" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E753" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="2" t="s">
-        <v>1191</v>
+        <v>1180</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>1191</v>
+        <v>1180</v>
       </c>
       <c r="C754" s="2"/>
       <c r="D754" s="2" t="s">
@@ -31004,10 +31029,10 @@
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" s="2" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="C755" s="2"/>
       <c r="D755" s="2" t="s">
@@ -31019,25 +31044,25 @@
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" s="2" t="s">
-        <v>1274</v>
+        <v>1193</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>1274</v>
+        <v>1193</v>
       </c>
       <c r="C756" s="2"/>
       <c r="D756" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E756" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="2" t="s">
-        <v>1180</v>
+        <v>1194</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>1180</v>
+        <v>1194</v>
       </c>
       <c r="C757" s="2"/>
       <c r="D757" s="2" t="s">
@@ -31049,10 +31074,10 @@
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="2" t="s">
-        <v>1181</v>
+        <v>1195</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>1181</v>
+        <v>1195</v>
       </c>
       <c r="C758" s="2"/>
       <c r="D758" s="2" t="s">
@@ -31064,10 +31089,10 @@
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" s="2" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="C759" s="2"/>
       <c r="D759" s="2" t="s">
@@ -31079,10 +31104,10 @@
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" s="2" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="C760" s="2"/>
       <c r="D760" s="2" t="s">
@@ -31094,10 +31119,10 @@
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" s="2" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="C761" s="2"/>
       <c r="D761" s="2" t="s">
@@ -31109,10 +31134,10 @@
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" s="2" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="C762" s="2"/>
       <c r="D762" s="2" t="s">
@@ -31124,10 +31149,10 @@
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="2" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="C763" s="2"/>
       <c r="D763" s="2" t="s">
@@ -31139,10 +31164,10 @@
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" s="2" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="C764" s="2"/>
       <c r="D764" s="2" t="s">
@@ -31154,10 +31179,10 @@
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" s="2" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="C765" s="2"/>
       <c r="D765" s="2" t="s">
@@ -31169,10 +31194,10 @@
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="2" t="s">
-        <v>1200</v>
+        <v>1182</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>1200</v>
+        <v>1182</v>
       </c>
       <c r="C766" s="2"/>
       <c r="D766" s="2" t="s">
@@ -31184,10 +31209,10 @@
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="2" t="s">
-        <v>1201</v>
+        <v>1183</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>1201</v>
+        <v>1183</v>
       </c>
       <c r="C767" s="2"/>
       <c r="D767" s="2" t="s">
@@ -31199,10 +31224,10 @@
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" s="2" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C768" s="2"/>
       <c r="D768" s="2" t="s">
@@ -31214,10 +31239,10 @@
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="2" t="s">
-        <v>1182</v>
+        <v>1204</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>1182</v>
+        <v>1204</v>
       </c>
       <c r="C769" s="2"/>
       <c r="D769" s="2" t="s">
@@ -31229,10 +31254,10 @@
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="2" t="s">
-        <v>1183</v>
+        <v>1205</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>1183</v>
+        <v>1205</v>
       </c>
       <c r="C770" s="2"/>
       <c r="D770" s="2" t="s">
@@ -31244,10 +31269,10 @@
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="2" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="C771" s="2"/>
       <c r="D771" s="2" t="s">
@@ -31259,10 +31284,10 @@
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="2" t="s">
-        <v>1204</v>
+        <v>542</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>1204</v>
+        <v>542</v>
       </c>
       <c r="C772" s="2"/>
       <c r="D772" s="2" t="s">
@@ -31274,55 +31299,55 @@
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" s="2" t="s">
-        <v>1205</v>
+        <v>1016</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>1205</v>
+        <v>1016</v>
       </c>
       <c r="C773" s="2"/>
       <c r="D773" s="2" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E773" s="2" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="2" t="s">
-        <v>1206</v>
+        <v>573</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>1206</v>
+        <v>573</v>
       </c>
       <c r="C774" s="2"/>
       <c r="D774" s="2" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E774" s="2" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" s="2" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="C775" s="2"/>
       <c r="D775" s="2" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E775" s="2" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" s="2" t="s">
-        <v>1016</v>
+        <v>564</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>1016</v>
+        <v>564</v>
       </c>
       <c r="C776" s="2"/>
       <c r="D776" s="2" t="s">
@@ -31334,10 +31359,10 @@
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" s="2" t="s">
-        <v>573</v>
+        <v>1011</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>573</v>
+        <v>1011</v>
       </c>
       <c r="C777" s="2"/>
       <c r="D777" s="2" t="s">
@@ -31349,10 +31374,10 @@
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" s="2" t="s">
-        <v>560</v>
+        <v>1012</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>560</v>
+        <v>1012</v>
       </c>
       <c r="C778" s="2"/>
       <c r="D778" s="2" t="s">
@@ -31364,10 +31389,10 @@
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" s="2" t="s">
-        <v>564</v>
+        <v>1017</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>564</v>
+        <v>1017</v>
       </c>
       <c r="C779" s="2"/>
       <c r="D779" s="2" t="s">
@@ -31379,10 +31404,10 @@
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" s="2" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
       <c r="C780" s="2"/>
       <c r="D780" s="2" t="s">
@@ -31394,10 +31419,10 @@
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" s="2" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="C781" s="2"/>
       <c r="D781" s="2" t="s">
@@ -31409,10 +31434,10 @@
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" s="2" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="C782" s="2"/>
       <c r="D782" s="2" t="s">
@@ -31424,10 +31449,10 @@
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" s="2" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C783" s="2"/>
       <c r="D783" s="2" t="s">
@@ -31439,55 +31464,55 @@
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" s="2" t="s">
-        <v>1019</v>
+        <v>576</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1019</v>
+        <v>576</v>
       </c>
       <c r="C784" s="2"/>
       <c r="D784" s="2" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E784" s="2" t="s">
-        <v>272</v>
+        <v>4</v>
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" s="2" t="s">
-        <v>1020</v>
+        <v>578</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>1020</v>
+        <v>578</v>
       </c>
       <c r="C785" s="2"/>
       <c r="D785" s="2" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E785" s="2" t="s">
-        <v>272</v>
+        <v>4</v>
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" s="2" t="s">
-        <v>1021</v>
+        <v>580</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>1021</v>
+        <v>580</v>
       </c>
       <c r="C786" s="2"/>
       <c r="D786" s="2" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E786" s="2" t="s">
-        <v>272</v>
+        <v>4</v>
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" s="2" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C787" s="2"/>
       <c r="D787" s="2" t="s">
@@ -31499,10 +31524,10 @@
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" s="2" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C788" s="2"/>
       <c r="D788" s="2" t="s">
@@ -31514,10 +31539,10 @@
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" s="2" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C789" s="2"/>
       <c r="D789" s="2" t="s">
@@ -31529,10 +31554,10 @@
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" s="2" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="C790" s="2"/>
       <c r="D790" s="2" t="s">
@@ -31544,10 +31569,10 @@
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" s="2" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="C791" s="2"/>
       <c r="D791" s="2" t="s">
@@ -31559,10 +31584,10 @@
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" s="2" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="C792" s="2"/>
       <c r="D792" s="2" t="s">
@@ -31574,10 +31599,10 @@
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" s="2" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C793" s="2"/>
       <c r="D793" s="2" t="s">
@@ -31589,10 +31614,10 @@
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" s="2" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="C794" s="2"/>
       <c r="D794" s="2" t="s">
@@ -31604,10 +31629,10 @@
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="2" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="C795" s="2"/>
       <c r="D795" s="2" t="s">
@@ -31619,10 +31644,10 @@
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="2" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="C796" s="2"/>
       <c r="D796" s="2" t="s">
@@ -31634,10 +31659,10 @@
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="2" t="s">
-        <v>597</v>
+        <v>1207</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>597</v>
+        <v>1207</v>
       </c>
       <c r="C797" s="2"/>
       <c r="D797" s="2" t="s">
@@ -31649,10 +31674,10 @@
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="2" t="s">
-        <v>599</v>
+        <v>1208</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>599</v>
+        <v>1208</v>
       </c>
       <c r="C798" s="2"/>
       <c r="D798" s="2" t="s">
@@ -31664,25 +31689,25 @@
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="2" t="s">
-        <v>601</v>
+        <v>1265</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>601</v>
+        <v>1265</v>
       </c>
       <c r="C799" s="2"/>
       <c r="D799" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E799" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="2" t="s">
-        <v>1207</v>
+        <v>1263</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1207</v>
+        <v>1263</v>
       </c>
       <c r="C800" s="2"/>
       <c r="D800" s="2" t="s">
@@ -31694,10 +31719,10 @@
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="2" t="s">
-        <v>1208</v>
+        <v>1268</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1208</v>
+        <v>1268</v>
       </c>
       <c r="C801" s="2"/>
       <c r="D801" s="2" t="s">
@@ -31709,25 +31734,25 @@
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="2" t="s">
-        <v>1265</v>
+        <v>1209</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>1265</v>
+        <v>1209</v>
       </c>
       <c r="C802" s="2"/>
       <c r="D802" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E802" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="2" t="s">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="C803" s="2"/>
       <c r="D803" s="2" t="s">
@@ -31739,10 +31764,10 @@
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="2" t="s">
-        <v>1268</v>
+        <v>1210</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>1268</v>
+        <v>1210</v>
       </c>
       <c r="C804" s="2"/>
       <c r="D804" s="2" t="s">
@@ -31754,10 +31779,10 @@
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="2" t="s">
-        <v>1209</v>
+        <v>1269</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>1209</v>
+        <v>1269</v>
       </c>
       <c r="C805" s="2"/>
       <c r="D805" s="2" t="s">
@@ -31769,40 +31794,40 @@
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="2" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="C806" s="2"/>
       <c r="D806" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E806" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="2" t="s">
-        <v>1210</v>
+        <v>1264</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>1210</v>
+        <v>1264</v>
       </c>
       <c r="C807" s="2"/>
       <c r="D807" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E807" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="2" t="s">
-        <v>1269</v>
+        <v>1211</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>1269</v>
+        <v>1211</v>
       </c>
       <c r="C808" s="2"/>
       <c r="D808" s="2" t="s">
@@ -31814,25 +31839,25 @@
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="2" t="s">
-        <v>1262</v>
+        <v>1266</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>1262</v>
+        <v>1266</v>
       </c>
       <c r="C809" s="2"/>
       <c r="D809" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E809" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="2" t="s">
-        <v>1264</v>
+        <v>1212</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1264</v>
+        <v>1212</v>
       </c>
       <c r="C810" s="2"/>
       <c r="D810" s="2" t="s">
@@ -31844,40 +31869,40 @@
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="2" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="C811" s="2"/>
       <c r="D811" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E811" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="2" t="s">
-        <v>1266</v>
+        <v>1214</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>1266</v>
+        <v>1214</v>
       </c>
       <c r="C812" s="2"/>
       <c r="D812" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E812" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="2" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="C813" s="2"/>
       <c r="D813" s="2" t="s">
@@ -31889,10 +31914,10 @@
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="2" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="C814" s="2"/>
       <c r="D814" s="2" t="s">
@@ -31904,10 +31929,10 @@
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="2" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="C815" s="2"/>
       <c r="D815" s="2" t="s">
@@ -31919,10 +31944,10 @@
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="2" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="C816" s="2"/>
       <c r="D816" s="2" t="s">
@@ -31934,10 +31959,10 @@
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="2" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="C817" s="2"/>
       <c r="D817" s="2" t="s">
@@ -31949,10 +31974,10 @@
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="2" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="C818" s="2"/>
       <c r="D818" s="2" t="s">
@@ -31964,10 +31989,10 @@
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="2" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="C819" s="2"/>
       <c r="D819" s="2" t="s">
@@ -31979,10 +32004,10 @@
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="2" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="C820" s="2"/>
       <c r="D820" s="2" t="s">
@@ -31994,10 +32019,10 @@
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="2" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="C821" s="2"/>
       <c r="D821" s="2" t="s">
@@ -32009,10 +32034,10 @@
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="2" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="C822" s="2"/>
       <c r="D822" s="2" t="s">
@@ -32024,10 +32049,10 @@
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="2" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="C823" s="2"/>
       <c r="D823" s="2" t="s">
@@ -32039,10 +32064,10 @@
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="2" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="C824" s="2"/>
       <c r="D824" s="2" t="s">
@@ -32054,10 +32079,10 @@
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="2" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="C825" s="2"/>
       <c r="D825" s="2" t="s">
@@ -32069,10 +32094,10 @@
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="2" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="C826" s="2"/>
       <c r="D826" s="2" t="s">
@@ -32084,10 +32109,10 @@
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="2" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="C827" s="2"/>
       <c r="D827" s="2" t="s">
@@ -32099,10 +32124,10 @@
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="2" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="C828" s="2"/>
       <c r="D828" s="2" t="s">
@@ -32114,10 +32139,10 @@
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="2" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="C829" s="2"/>
       <c r="D829" s="2" t="s">
@@ -32129,10 +32154,10 @@
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="2" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="C830" s="2"/>
       <c r="D830" s="2" t="s">
@@ -32144,10 +32169,10 @@
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="2" t="s">
-        <v>1230</v>
+        <v>1246</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>1230</v>
+        <v>1246</v>
       </c>
       <c r="C831" s="2"/>
       <c r="D831" s="2" t="s">
@@ -32159,10 +32184,10 @@
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="2" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C832" s="2"/>
       <c r="D832" s="2" t="s">
@@ -32174,10 +32199,10 @@
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="2" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C833" s="2"/>
       <c r="D833" s="2" t="s">
@@ -32189,10 +32214,10 @@
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="2" t="s">
-        <v>1246</v>
+        <v>1235</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>1246</v>
+        <v>1235</v>
       </c>
       <c r="C834" s="2"/>
       <c r="D834" s="2" t="s">
@@ -32204,10 +32229,10 @@
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="2" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="C835" s="2"/>
       <c r="D835" s="2" t="s">
@@ -32219,10 +32244,10 @@
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="2" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="C836" s="2"/>
       <c r="D836" s="2" t="s">
@@ -32234,10 +32259,10 @@
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="2" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="C837" s="2"/>
       <c r="D837" s="2" t="s">
@@ -32249,10 +32274,10 @@
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="2" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="C838" s="2"/>
       <c r="D838" s="2" t="s">
@@ -32264,10 +32289,10 @@
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="2" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="C839" s="2"/>
       <c r="D839" s="2" t="s">
@@ -32279,10 +32304,10 @@
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="2" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="C840" s="2"/>
       <c r="D840" s="2" t="s">
@@ -32294,10 +32319,10 @@
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="2" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="C841" s="2"/>
       <c r="D841" s="2" t="s">
@@ -32309,10 +32334,10 @@
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="2" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="C842" s="2"/>
       <c r="D842" s="2" t="s">
@@ -32324,10 +32349,10 @@
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="2" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="C843" s="2"/>
       <c r="D843" s="2" t="s">
@@ -32339,10 +32364,10 @@
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="2" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="C844" s="2"/>
       <c r="D844" s="2" t="s">
@@ -32354,10 +32379,10 @@
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="2" t="s">
-        <v>1243</v>
+        <v>732</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>1243</v>
+        <v>732</v>
       </c>
       <c r="C845" s="2"/>
       <c r="D845" s="2" t="s">
@@ -32369,10 +32394,10 @@
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="2" t="s">
-        <v>1244</v>
+        <v>737</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>1244</v>
+        <v>737</v>
       </c>
       <c r="C846" s="2"/>
       <c r="D846" s="2" t="s">
@@ -32384,10 +32409,10 @@
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="2" t="s">
-        <v>1245</v>
+        <v>739</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>1245</v>
+        <v>739</v>
       </c>
       <c r="C847" s="2"/>
       <c r="D847" s="2" t="s">
@@ -32399,10 +32424,10 @@
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="2" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="C848" s="2"/>
       <c r="D848" s="2" t="s">
@@ -32414,55 +32439,55 @@
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="2" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="C849" s="2"/>
       <c r="D849" s="2" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E849" s="2" t="s">
-        <v>21</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="2" t="s">
-        <v>739</v>
+        <v>753</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>739</v>
+        <v>753</v>
       </c>
       <c r="C850" s="2"/>
       <c r="D850" s="2" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E850" s="2" t="s">
-        <v>21</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="2" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="C851" s="2"/>
       <c r="D851" s="2" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E851" s="2" t="s">
-        <v>21</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="2" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="C852" s="2"/>
       <c r="D852" s="2" t="s">
@@ -32474,10 +32499,10 @@
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="2" t="s">
-        <v>753</v>
+        <v>1272</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>753</v>
+        <v>1272</v>
       </c>
       <c r="C853" s="2"/>
       <c r="D853" s="2" t="s">
@@ -32489,10 +32514,10 @@
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="2" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="C854" s="2"/>
       <c r="D854" s="2" t="s">
@@ -32504,10 +32529,10 @@
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="2" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="C855" s="2"/>
       <c r="D855" s="2" t="s">
@@ -32519,10 +32544,10 @@
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="2" t="s">
-        <v>1272</v>
+        <v>771</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>1272</v>
+        <v>771</v>
       </c>
       <c r="C856" s="2"/>
       <c r="D856" s="2" t="s">
@@ -32534,10 +32559,10 @@
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="2" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="C857" s="2"/>
       <c r="D857" s="2" t="s">
@@ -32549,10 +32574,10 @@
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="2" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="B858" s="2" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="C858" s="2"/>
       <c r="D858" s="2" t="s">
@@ -32564,10 +32589,10 @@
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="2" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="C859" s="2"/>
       <c r="D859" s="2" t="s">
@@ -32579,10 +32604,10 @@
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="2" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="C860" s="2"/>
       <c r="D860" s="2" t="s">
@@ -32594,10 +32619,10 @@
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="2" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="C861" s="2"/>
       <c r="D861" s="2" t="s">
@@ -32609,10 +32634,10 @@
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="2" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="C862" s="2"/>
       <c r="D862" s="2" t="s">
@@ -32624,10 +32649,10 @@
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="2" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="C863" s="2"/>
       <c r="D863" s="2" t="s">
@@ -32639,10 +32664,10 @@
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="2" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="C864" s="2"/>
       <c r="D864" s="2" t="s">
@@ -32654,10 +32679,10 @@
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="2" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="C865" s="2"/>
       <c r="D865" s="2" t="s">
@@ -32669,10 +32694,10 @@
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="2" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="C866" s="2"/>
       <c r="D866" s="2" t="s">
@@ -32684,10 +32709,10 @@
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="2" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="C867" s="2"/>
       <c r="D867" s="2" t="s">
@@ -32699,10 +32724,10 @@
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="2" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="C868" s="2"/>
       <c r="D868" s="2" t="s">
@@ -32714,10 +32739,10 @@
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="2" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="C869" s="2"/>
       <c r="D869" s="2" t="s">
@@ -32729,10 +32754,10 @@
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="2" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="C870" s="2"/>
       <c r="D870" s="2" t="s">
@@ -32744,10 +32769,10 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="2" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="C871" s="2"/>
       <c r="D871" s="2" t="s">
@@ -32759,10 +32784,10 @@
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="2" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="C872" s="2"/>
       <c r="D872" s="2" t="s">
@@ -32774,10 +32799,10 @@
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="2" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="C873" s="2"/>
       <c r="D873" s="2" t="s">
@@ -32789,10 +32814,10 @@
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="2" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="C874" s="2"/>
       <c r="D874" s="2" t="s">
@@ -32804,10 +32829,10 @@
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="2" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="C875" s="2"/>
       <c r="D875" s="2" t="s">
@@ -32819,10 +32844,10 @@
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="2" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="C876" s="2"/>
       <c r="D876" s="2" t="s">
@@ -32834,10 +32859,10 @@
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="2" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="C877" s="2"/>
       <c r="D877" s="2" t="s">
@@ -32849,10 +32874,10 @@
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" s="2" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="C878" s="2"/>
       <c r="D878" s="2" t="s">
@@ -32864,10 +32889,10 @@
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" s="2" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="C879" s="2"/>
       <c r="D879" s="2" t="s">
@@ -32879,10 +32904,10 @@
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" s="2" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="C880" s="2"/>
       <c r="D880" s="2" t="s">
@@ -32894,10 +32919,10 @@
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" s="2" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="C881" s="2"/>
       <c r="D881" s="2" t="s">
@@ -32909,10 +32934,10 @@
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" s="2" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="C882" s="2"/>
       <c r="D882" s="2" t="s">
@@ -32924,10 +32949,10 @@
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883" s="2" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="C883" s="2"/>
       <c r="D883" s="2" t="s">
@@ -32939,10 +32964,10 @@
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884" s="2" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="C884" s="2"/>
       <c r="D884" s="2" t="s">
@@ -32954,10 +32979,10 @@
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885" s="2" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="C885" s="2"/>
       <c r="D885" s="2" t="s">
@@ -32969,10 +32994,10 @@
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A886" s="2" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="C886" s="2"/>
       <c r="D886" s="2" t="s">
@@ -32984,10 +33009,10 @@
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887" s="2" t="s">
-        <v>855</v>
+        <v>864</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>855</v>
+        <v>864</v>
       </c>
       <c r="C887" s="2"/>
       <c r="D887" s="2" t="s">
@@ -32999,10 +33024,10 @@
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888" s="2" t="s">
-        <v>858</v>
+        <v>867</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>858</v>
+        <v>867</v>
       </c>
       <c r="C888" s="2"/>
       <c r="D888" s="2" t="s">
@@ -33014,10 +33039,10 @@
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A889" s="2" t="s">
-        <v>861</v>
+        <v>870</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>861</v>
+        <v>870</v>
       </c>
       <c r="C889" s="2"/>
       <c r="D889" s="2" t="s">
@@ -33029,10 +33054,10 @@
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890" s="2" t="s">
-        <v>864</v>
+        <v>873</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>864</v>
+        <v>873</v>
       </c>
       <c r="C890" s="2"/>
       <c r="D890" s="2" t="s">
@@ -33044,10 +33069,10 @@
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A891" s="2" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="C891" s="2"/>
       <c r="D891" s="2" t="s">
@@ -33059,10 +33084,10 @@
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A892" s="2" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="C892" s="2"/>
       <c r="D892" s="2" t="s">
@@ -33074,10 +33099,10 @@
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A893" s="2" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="C893" s="2"/>
       <c r="D893" s="2" t="s">
@@ -33089,10 +33114,10 @@
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" s="2" t="s">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="B894" s="2" t="s">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="C894" s="2"/>
       <c r="D894" s="2" t="s">
@@ -33104,10 +33129,10 @@
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" s="2" t="s">
-        <v>879</v>
+        <v>888</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>879</v>
+        <v>888</v>
       </c>
       <c r="C895" s="2"/>
       <c r="D895" s="2" t="s">
@@ -33119,10 +33144,10 @@
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" s="2" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="C896" s="2"/>
       <c r="D896" s="2" t="s">
@@ -33134,10 +33159,10 @@
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" s="2" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="C897" s="2"/>
       <c r="D897" s="2" t="s">
@@ -33149,10 +33174,10 @@
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" s="2" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="C898" s="2"/>
       <c r="D898" s="2" t="s">
@@ -33164,10 +33189,10 @@
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" s="2" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
       <c r="C899" s="2"/>
       <c r="D899" s="2" t="s">
@@ -33179,10 +33204,10 @@
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" s="2" t="s">
-        <v>894</v>
+        <v>903</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>894</v>
+        <v>903</v>
       </c>
       <c r="C900" s="2"/>
       <c r="D900" s="2" t="s">
@@ -33194,10 +33219,10 @@
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" s="2" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="C901" s="2"/>
       <c r="D901" s="2" t="s">
@@ -33209,10 +33234,10 @@
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" s="2" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="C902" s="2"/>
       <c r="D902" s="2" t="s">
@@ -33224,10 +33249,10 @@
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" s="2" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="C903" s="2"/>
       <c r="D903" s="2" t="s">
@@ -33239,10 +33264,10 @@
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904" s="2" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
       <c r="C904" s="2"/>
       <c r="D904" s="2" t="s">
@@ -33254,10 +33279,10 @@
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A905" s="2" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
       <c r="C905" s="2"/>
       <c r="D905" s="2" t="s">
@@ -33269,10 +33294,10 @@
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A906" s="2" t="s">
-        <v>912</v>
+        <v>921</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>912</v>
+        <v>921</v>
       </c>
       <c r="C906" s="2"/>
       <c r="D906" s="2" t="s">
@@ -33284,10 +33309,10 @@
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A907" s="2" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
       <c r="C907" s="2"/>
       <c r="D907" s="2" t="s">
@@ -33299,10 +33324,10 @@
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A908" s="2" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
       <c r="C908" s="2"/>
       <c r="D908" s="2" t="s">
@@ -33314,10 +33339,10 @@
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A909" s="2" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="C909" s="2"/>
       <c r="D909" s="2" t="s">
@@ -33329,10 +33354,10 @@
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A910" s="2" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="C910" s="2"/>
       <c r="D910" s="2" t="s">
@@ -33344,10 +33369,10 @@
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A911" s="2" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="C911" s="2"/>
       <c r="D911" s="2" t="s">
@@ -33359,10 +33384,10 @@
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A912" s="2" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="C912" s="2"/>
       <c r="D912" s="2" t="s">
@@ -33374,10 +33399,10 @@
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A913" s="2" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
       <c r="C913" s="2"/>
       <c r="D913" s="2" t="s">
@@ -33389,10 +33414,10 @@
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A914" s="2" t="s">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="B914" s="2" t="s">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="C914" s="2"/>
       <c r="D914" s="2" t="s">
@@ -33404,10 +33429,10 @@
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A915" s="2" t="s">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="B915" s="2" t="s">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="C915" s="2"/>
       <c r="D915" s="2" t="s">
@@ -33419,10 +33444,10 @@
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A916" s="2" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
       <c r="B916" s="2" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
       <c r="C916" s="2"/>
       <c r="D916" s="2" t="s">
@@ -33434,10 +33459,10 @@
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A917" s="2" t="s">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="C917" s="2"/>
       <c r="D917" s="2" t="s">
@@ -33449,10 +33474,10 @@
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A918" s="2" t="s">
-        <v>948</v>
+        <v>957</v>
       </c>
       <c r="B918" s="2" t="s">
-        <v>948</v>
+        <v>957</v>
       </c>
       <c r="C918" s="2"/>
       <c r="D918" s="2" t="s">
@@ -33464,10 +33489,10 @@
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A919" s="2" t="s">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="B919" s="2" t="s">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="C919" s="2"/>
       <c r="D919" s="2" t="s">
@@ -33479,10 +33504,10 @@
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A920" s="2" t="s">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="B920" s="2" t="s">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="C920" s="2"/>
       <c r="D920" s="2" t="s">
@@ -33494,10 +33519,10 @@
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921" s="2" t="s">
-        <v>957</v>
+        <v>966</v>
       </c>
       <c r="B921" s="2" t="s">
-        <v>957</v>
+        <v>966</v>
       </c>
       <c r="C921" s="2"/>
       <c r="D921" s="2" t="s">
@@ -33509,10 +33534,10 @@
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A922" s="2" t="s">
-        <v>960</v>
+        <v>969</v>
       </c>
       <c r="B922" s="2" t="s">
-        <v>960</v>
+        <v>969</v>
       </c>
       <c r="C922" s="2"/>
       <c r="D922" s="2" t="s">
@@ -33524,10 +33549,10 @@
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A923" s="2" t="s">
-        <v>963</v>
+        <v>972</v>
       </c>
       <c r="B923" s="2" t="s">
-        <v>963</v>
+        <v>972</v>
       </c>
       <c r="C923" s="2"/>
       <c r="D923" s="2" t="s">
@@ -33539,10 +33564,10 @@
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" s="2" t="s">
-        <v>966</v>
+        <v>975</v>
       </c>
       <c r="B924" s="2" t="s">
-        <v>966</v>
+        <v>975</v>
       </c>
       <c r="C924" s="2"/>
       <c r="D924" s="2" t="s">
@@ -33554,10 +33579,10 @@
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A925" s="2" t="s">
-        <v>969</v>
+        <v>978</v>
       </c>
       <c r="B925" s="2" t="s">
-        <v>969</v>
+        <v>978</v>
       </c>
       <c r="C925" s="2"/>
       <c r="D925" s="2" t="s">
@@ -33569,10 +33594,10 @@
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A926" s="2" t="s">
-        <v>972</v>
+        <v>981</v>
       </c>
       <c r="B926" s="2" t="s">
-        <v>972</v>
+        <v>981</v>
       </c>
       <c r="C926" s="2"/>
       <c r="D926" s="2" t="s">
@@ -33584,85 +33609,85 @@
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A927" s="2" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="B927" s="2" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="C927" s="2"/>
       <c r="D927" s="2" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E927" s="2" t="s">
-        <v>1271</v>
+        <v>4</v>
       </c>
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A928" s="2" t="s">
-        <v>978</v>
+        <v>1247</v>
       </c>
       <c r="B928" s="2" t="s">
-        <v>978</v>
+        <v>1247</v>
       </c>
       <c r="C928" s="2"/>
       <c r="D928" s="2" t="s">
-        <v>280</v>
+        <v>3</v>
       </c>
       <c r="E928" s="2" t="s">
-        <v>1271</v>
+        <v>21</v>
       </c>
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929" s="2" t="s">
-        <v>981</v>
+        <v>1034</v>
       </c>
       <c r="B929" s="2" t="s">
-        <v>981</v>
+        <v>1034</v>
       </c>
       <c r="C929" s="2"/>
       <c r="D929" s="2" t="s">
-        <v>280</v>
+        <v>1175</v>
       </c>
       <c r="E929" s="2" t="s">
-        <v>1271</v>
+        <v>8</v>
       </c>
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A930" s="2" t="s">
-        <v>983</v>
+        <v>1036</v>
       </c>
       <c r="B930" s="2" t="s">
-        <v>983</v>
+        <v>1036</v>
       </c>
       <c r="C930" s="2"/>
       <c r="D930" s="2" t="s">
-        <v>3</v>
+        <v>1175</v>
       </c>
       <c r="E930" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A931" s="2" t="s">
-        <v>1247</v>
+        <v>1037</v>
       </c>
       <c r="B931" s="2" t="s">
-        <v>1247</v>
+        <v>1037</v>
       </c>
       <c r="C931" s="2"/>
       <c r="D931" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E931" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A932" s="2" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="B932" s="2" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="C932" s="2"/>
       <c r="D932" s="2" t="s">
@@ -33674,10 +33699,10 @@
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A933" s="2" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="B933" s="2" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="C933" s="2"/>
       <c r="D933" s="2" t="s">
@@ -33689,14 +33714,14 @@
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A934" s="2" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="B934" s="2" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="C934" s="2"/>
       <c r="D934" s="2" t="s">
-        <v>7</v>
+        <v>1175</v>
       </c>
       <c r="E934" s="2" t="s">
         <v>8</v>
@@ -33704,10 +33729,10 @@
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A935" s="2" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="B935" s="2" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="C935" s="2"/>
       <c r="D935" s="2" t="s">
@@ -33719,14 +33744,14 @@
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A936" s="2" t="s">
-        <v>1041</v>
+        <v>1050</v>
       </c>
       <c r="B936" s="2" t="s">
-        <v>1041</v>
+        <v>1050</v>
       </c>
       <c r="C936" s="2"/>
       <c r="D936" s="2" t="s">
-        <v>1175</v>
+        <v>280</v>
       </c>
       <c r="E936" s="2" t="s">
         <v>8</v>
@@ -33734,14 +33759,14 @@
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A937" s="2" t="s">
-        <v>1043</v>
+        <v>1053</v>
       </c>
       <c r="B937" s="2" t="s">
-        <v>1043</v>
+        <v>1053</v>
       </c>
       <c r="C937" s="2"/>
       <c r="D937" s="2" t="s">
-        <v>1175</v>
+        <v>7</v>
       </c>
       <c r="E937" s="2" t="s">
         <v>8</v>
@@ -33749,10 +33774,10 @@
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A938" s="2" t="s">
-        <v>1045</v>
+        <v>1064</v>
       </c>
       <c r="B938" s="2" t="s">
-        <v>1045</v>
+        <v>1064</v>
       </c>
       <c r="C938" s="2"/>
       <c r="D938" s="2" t="s">
@@ -33764,14 +33789,14 @@
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A939" s="2" t="s">
-        <v>1050</v>
+        <v>1065</v>
       </c>
       <c r="B939" s="2" t="s">
-        <v>1050</v>
+        <v>1065</v>
       </c>
       <c r="C939" s="2"/>
       <c r="D939" s="2" t="s">
-        <v>280</v>
+        <v>1175</v>
       </c>
       <c r="E939" s="2" t="s">
         <v>8</v>
@@ -33779,10 +33804,10 @@
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A940" s="2" t="s">
-        <v>1053</v>
+        <v>1066</v>
       </c>
       <c r="B940" s="2" t="s">
-        <v>1053</v>
+        <v>1066</v>
       </c>
       <c r="C940" s="2"/>
       <c r="D940" s="2" t="s">
@@ -33794,10 +33819,10 @@
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A941" s="2" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="B941" s="2" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="C941" s="2"/>
       <c r="D941" s="2" t="s">
@@ -33809,10 +33834,10 @@
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A942" s="2" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B942" s="2" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="C942" s="2"/>
       <c r="D942" s="2" t="s">
@@ -33824,14 +33849,14 @@
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A943" s="2" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="B943" s="2" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="C943" s="2"/>
       <c r="D943" s="2" t="s">
-        <v>7</v>
+        <v>1175</v>
       </c>
       <c r="E943" s="2" t="s">
         <v>8</v>
@@ -33839,10 +33864,10 @@
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A944" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="B944" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C944" s="2"/>
       <c r="D944" s="2" t="s">
@@ -33854,10 +33879,10 @@
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A945" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="B945" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C945" s="2"/>
       <c r="D945" s="2" t="s">
@@ -33869,10 +33894,10 @@
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A946" s="2" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="B946" s="2" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="C946" s="2"/>
       <c r="D946" s="2" t="s">
@@ -33884,14 +33909,14 @@
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A947" s="2" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="B947" s="2" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="C947" s="2"/>
       <c r="D947" s="2" t="s">
-        <v>1175</v>
+        <v>7</v>
       </c>
       <c r="E947" s="2" t="s">
         <v>8</v>
@@ -33899,14 +33924,14 @@
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A948" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="B948" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="C948" s="2"/>
       <c r="D948" s="2" t="s">
-        <v>1175</v>
+        <v>280</v>
       </c>
       <c r="E948" s="2" t="s">
         <v>8</v>
@@ -33914,10 +33939,10 @@
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A949" s="2" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="B949" s="2" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="C949" s="2"/>
       <c r="D949" s="2" t="s">
@@ -33929,14 +33954,14 @@
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A950" s="2" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="B950" s="2" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="C950" s="2"/>
       <c r="D950" s="2" t="s">
-        <v>7</v>
+        <v>1175</v>
       </c>
       <c r="E950" s="2" t="s">
         <v>8</v>
@@ -33944,14 +33969,14 @@
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" s="2" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="B951" s="2" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="C951" s="2"/>
       <c r="D951" s="2" t="s">
-        <v>280</v>
+        <v>1175</v>
       </c>
       <c r="E951" s="2" t="s">
         <v>8</v>
@@ -33959,10 +33984,10 @@
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A952" s="2" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="B952" s="2" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="C952" s="2"/>
       <c r="D952" s="2" t="s">
@@ -33974,10 +33999,10 @@
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A953" s="2" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="B953" s="2" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="C953" s="2"/>
       <c r="D953" s="2" t="s">
@@ -33989,10 +34014,10 @@
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A954" s="2" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="B954" s="2" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="C954" s="2"/>
       <c r="D954" s="2" t="s">
@@ -34004,14 +34029,14 @@
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A955" s="2" t="s">
-        <v>1083</v>
+        <v>1173</v>
       </c>
       <c r="B955" s="2" t="s">
-        <v>1083</v>
+        <v>1173</v>
       </c>
       <c r="C955" s="2"/>
       <c r="D955" s="2" t="s">
-        <v>1175</v>
+        <v>7</v>
       </c>
       <c r="E955" s="2" t="s">
         <v>8</v>
@@ -34019,10 +34044,10 @@
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A956" s="2" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="B956" s="2" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="C956" s="2"/>
       <c r="D956" s="2" t="s">
@@ -34034,14 +34059,14 @@
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A957" s="2" t="s">
-        <v>1087</v>
+        <v>1248</v>
       </c>
       <c r="B957" s="2" t="s">
-        <v>1087</v>
+        <v>1248</v>
       </c>
       <c r="C957" s="2"/>
       <c r="D957" s="2" t="s">
-        <v>1175</v>
+        <v>280</v>
       </c>
       <c r="E957" s="2" t="s">
         <v>8</v>
@@ -34049,14 +34074,14 @@
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A958" s="2" t="s">
-        <v>1173</v>
+        <v>1113</v>
       </c>
       <c r="B958" s="2" t="s">
-        <v>1173</v>
+        <v>1113</v>
       </c>
       <c r="C958" s="2"/>
       <c r="D958" s="2" t="s">
-        <v>7</v>
+        <v>1175</v>
       </c>
       <c r="E958" s="2" t="s">
         <v>8</v>
@@ -34064,10 +34089,10 @@
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A959" s="2" t="s">
-        <v>1089</v>
+        <v>1115</v>
       </c>
       <c r="B959" s="2" t="s">
-        <v>1089</v>
+        <v>1115</v>
       </c>
       <c r="C959" s="2"/>
       <c r="D959" s="2" t="s">
@@ -34079,14 +34104,14 @@
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A960" s="2" t="s">
-        <v>1248</v>
+        <v>1117</v>
       </c>
       <c r="B960" s="2" t="s">
-        <v>1248</v>
+        <v>1117</v>
       </c>
       <c r="C960" s="2"/>
       <c r="D960" s="2" t="s">
-        <v>280</v>
+        <v>1175</v>
       </c>
       <c r="E960" s="2" t="s">
         <v>8</v>
@@ -34094,14 +34119,14 @@
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A961" s="2" t="s">
-        <v>1113</v>
+        <v>1250</v>
       </c>
       <c r="B961" s="2" t="s">
-        <v>1113</v>
+        <v>1250</v>
       </c>
       <c r="C961" s="2"/>
       <c r="D961" s="2" t="s">
-        <v>1175</v>
+        <v>7</v>
       </c>
       <c r="E961" s="2" t="s">
         <v>8</v>
@@ -34109,10 +34134,10 @@
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A962" s="2" t="s">
-        <v>1115</v>
+        <v>1249</v>
       </c>
       <c r="B962" s="2" t="s">
-        <v>1115</v>
+        <v>1249</v>
       </c>
       <c r="C962" s="2"/>
       <c r="D962" s="2" t="s">
@@ -34124,10 +34149,10 @@
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A963" s="2" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="B963" s="2" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="C963" s="2"/>
       <c r="D963" s="2" t="s">
@@ -34139,14 +34164,14 @@
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A964" s="2" t="s">
-        <v>1250</v>
+        <v>1123</v>
       </c>
       <c r="B964" s="2" t="s">
-        <v>1250</v>
+        <v>1123</v>
       </c>
       <c r="C964" s="2"/>
       <c r="D964" s="2" t="s">
-        <v>7</v>
+        <v>1175</v>
       </c>
       <c r="E964" s="2" t="s">
         <v>8</v>
@@ -34154,10 +34179,10 @@
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A965" s="2" t="s">
-        <v>1249</v>
+        <v>1124</v>
       </c>
       <c r="B965" s="2" t="s">
-        <v>1249</v>
+        <v>1124</v>
       </c>
       <c r="C965" s="2"/>
       <c r="D965" s="2" t="s">
@@ -34169,10 +34194,10 @@
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A966" s="2" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="B966" s="2" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="C966" s="2"/>
       <c r="D966" s="2" t="s">
@@ -34184,10 +34209,10 @@
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A967" s="2" t="s">
-        <v>1123</v>
+        <v>1130</v>
       </c>
       <c r="B967" s="2" t="s">
-        <v>1123</v>
+        <v>1130</v>
       </c>
       <c r="C967" s="2"/>
       <c r="D967" s="2" t="s">
@@ -34199,10 +34224,10 @@
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A968" s="2" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
       <c r="B968" s="2" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
       <c r="C968" s="2"/>
       <c r="D968" s="2" t="s">
@@ -34214,10 +34239,10 @@
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A969" s="2" t="s">
-        <v>1125</v>
+        <v>1140</v>
       </c>
       <c r="B969" s="2" t="s">
-        <v>1125</v>
+        <v>1140</v>
       </c>
       <c r="C969" s="2"/>
       <c r="D969" s="2" t="s">
@@ -34229,10 +34254,10 @@
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A970" s="2" t="s">
-        <v>1130</v>
+        <v>1141</v>
       </c>
       <c r="B970" s="2" t="s">
-        <v>1130</v>
+        <v>1141</v>
       </c>
       <c r="C970" s="2"/>
       <c r="D970" s="2" t="s">
@@ -34244,10 +34269,10 @@
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A971" s="2" t="s">
-        <v>1134</v>
+        <v>1143</v>
       </c>
       <c r="B971" s="2" t="s">
-        <v>1134</v>
+        <v>1143</v>
       </c>
       <c r="C971" s="2"/>
       <c r="D971" s="2" t="s">
@@ -34259,10 +34284,10 @@
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A972" s="2" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="B972" s="2" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="C972" s="2"/>
       <c r="D972" s="2" t="s">
@@ -34274,10 +34299,10 @@
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A973" s="2" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="B973" s="2" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="C973" s="2"/>
       <c r="D973" s="2" t="s">
@@ -34289,10 +34314,10 @@
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A974" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="B974" s="2" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="C974" s="2"/>
       <c r="D974" s="2" t="s">
@@ -34304,10 +34329,10 @@
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A975" s="2" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="B975" s="2" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="C975" s="2"/>
       <c r="D975" s="2" t="s">
@@ -34319,10 +34344,10 @@
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A976" s="2" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="B976" s="2" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="C976" s="2"/>
       <c r="D976" s="2" t="s">
@@ -34334,10 +34359,10 @@
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A977" s="2" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="B977" s="2" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="C977" s="2"/>
       <c r="D977" s="2" t="s">
@@ -34349,10 +34374,10 @@
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A978" s="2" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="B978" s="2" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="C978" s="2"/>
       <c r="D978" s="2" t="s">
@@ -34364,10 +34389,10 @@
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A979" s="2" t="s">
-        <v>1149</v>
+        <v>1251</v>
       </c>
       <c r="B979" s="2" t="s">
-        <v>1149</v>
+        <v>1251</v>
       </c>
       <c r="C979" s="2"/>
       <c r="D979" s="2" t="s">
@@ -34379,10 +34404,10 @@
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A980" s="2" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="B980" s="2" t="s">
-        <v>1150</v>
+        <v>1155</v>
       </c>
       <c r="C980" s="2"/>
       <c r="D980" s="2" t="s">
@@ -34394,10 +34419,10 @@
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A981" s="2" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="B981" s="2" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="C981" s="2"/>
       <c r="D981" s="2" t="s">
@@ -34409,10 +34434,10 @@
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A982" s="2" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B982" s="2" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C982" s="2"/>
       <c r="D982" s="2" t="s">
@@ -34424,25 +34449,25 @@
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A983" s="2" t="s">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="B983" s="2" t="s">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="C983" s="2"/>
       <c r="D983" s="2" t="s">
-        <v>1175</v>
+        <v>3</v>
       </c>
       <c r="E983" s="2" t="s">
-        <v>8</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A984" s="2" t="s">
-        <v>1157</v>
+        <v>1253</v>
       </c>
       <c r="B984" s="2" t="s">
-        <v>1157</v>
+        <v>1253</v>
       </c>
       <c r="C984" s="2"/>
       <c r="D984" s="2" t="s">
@@ -34454,14 +34479,14 @@
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A985" s="2" t="s">
-        <v>1252</v>
+        <v>1119</v>
       </c>
       <c r="B985" s="2" t="s">
-        <v>1252</v>
+        <v>1119</v>
       </c>
       <c r="C985" s="2"/>
       <c r="D985" s="2" t="s">
-        <v>1175</v>
+        <v>280</v>
       </c>
       <c r="E985" s="2" t="s">
         <v>8</v>
@@ -34469,25 +34494,25 @@
     </row>
     <row r="986" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A986" s="2" t="s">
-        <v>1160</v>
+        <v>1255</v>
       </c>
       <c r="B986" s="2" t="s">
-        <v>1160</v>
+        <v>1255</v>
       </c>
       <c r="C986" s="2"/>
       <c r="D986" s="2" t="s">
-        <v>3</v>
+        <v>1175</v>
       </c>
       <c r="E986" s="2" t="s">
-        <v>1176</v>
+        <v>8</v>
       </c>
     </row>
     <row r="987" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A987" s="2" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B987" s="2" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C987" s="2"/>
       <c r="D987" s="2" t="s">
@@ -34499,14 +34524,14 @@
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A988" s="2" t="s">
-        <v>1119</v>
+        <v>1256</v>
       </c>
       <c r="B988" s="2" t="s">
-        <v>1119</v>
+        <v>1256</v>
       </c>
       <c r="C988" s="2"/>
       <c r="D988" s="2" t="s">
-        <v>280</v>
+        <v>1175</v>
       </c>
       <c r="E988" s="2" t="s">
         <v>8</v>
@@ -34514,10 +34539,10 @@
     </row>
     <row r="989" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A989" s="2" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="B989" s="2" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="C989" s="2"/>
       <c r="D989" s="2" t="s">
@@ -34529,10 +34554,10 @@
     </row>
     <row r="990" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A990" s="2" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="B990" s="2" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="C990" s="2"/>
       <c r="D990" s="2" t="s">
@@ -34544,10 +34569,10 @@
     </row>
     <row r="991" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A991" s="2" t="s">
-        <v>1256</v>
+        <v>1172</v>
       </c>
       <c r="B991" s="2" t="s">
-        <v>1256</v>
+        <v>1172</v>
       </c>
       <c r="C991" s="2"/>
       <c r="D991" s="2" t="s">
@@ -34559,135 +34584,90 @@
     </row>
     <row r="992" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A992" s="2" t="s">
-        <v>1257</v>
+        <v>1270</v>
       </c>
       <c r="B992" s="2" t="s">
-        <v>1257</v>
+        <v>1270</v>
       </c>
       <c r="C992" s="2"/>
       <c r="D992" s="2" t="s">
-        <v>1175</v>
+        <v>3</v>
       </c>
       <c r="E992" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="993" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A993" s="2" t="s">
-        <v>1258</v>
+        <v>453</v>
       </c>
       <c r="B993" s="2" t="s">
-        <v>1258</v>
+        <v>453</v>
       </c>
       <c r="C993" s="2"/>
       <c r="D993" s="2" t="s">
-        <v>1175</v>
+        <v>280</v>
       </c>
       <c r="E993" s="2" t="s">
-        <v>8</v>
+        <v>275</v>
       </c>
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A994" s="2" t="s">
-        <v>1172</v>
+        <v>456</v>
       </c>
       <c r="B994" s="2" t="s">
-        <v>1172</v>
+        <v>456</v>
       </c>
       <c r="C994" s="2"/>
       <c r="D994" s="2" t="s">
-        <v>1175</v>
+        <v>280</v>
       </c>
       <c r="E994" s="2" t="s">
-        <v>8</v>
+        <v>275</v>
       </c>
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A995" s="2" t="s">
-        <v>1270</v>
+        <v>462</v>
       </c>
       <c r="B995" s="2" t="s">
-        <v>1270</v>
+        <v>462</v>
       </c>
       <c r="C995" s="2"/>
       <c r="D995" s="2" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="E995" s="2" t="s">
-        <v>21</v>
+        <v>275</v>
       </c>
     </row>
     <row r="996" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A996" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B996" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C996" s="2"/>
-      <c r="D996" s="2" t="s">
-        <v>280</v>
+      <c r="A996" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B996" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D996" s="4" t="s">
+        <v>1278</v>
       </c>
       <c r="E996" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="997" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A997" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B997" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C997" s="2"/>
-      <c r="D997" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E997" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="998" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A998" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B998" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C998" s="2"/>
-      <c r="D998" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E998" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="999" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A999" s="5" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B999" s="5" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D999" s="4" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E999" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1003" s="2"/>
-      <c r="B1003" s="2"/>
-      <c r="E1003" s="4"/>
-    </row>
-    <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1004" s="2"/>
-      <c r="B1004" s="2"/>
-      <c r="E1004" s="4"/>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1000" s="2"/>
+      <c r="B1000" s="2"/>
+      <c r="E1000" s="4"/>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="E1001" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1004"/>
+  <autoFilter ref="A1:E1001"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -34695,10 +34675,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34706,9 +34687,10 @@
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -34718,8 +34700,20 @@
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -34729,8 +34723,9 @@
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -34740,8 +34735,9 @@
       <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -34751,8 +34747,9 @@
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -34762,8 +34759,9 @@
       <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -34773,8 +34771,9 @@
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -34784,8 +34783,9 @@
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -34795,8 +34795,9 @@
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -34806,8 +34807,9 @@
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -34817,8 +34819,9 @@
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -34828,8 +34831,9 @@
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -34839,8 +34843,9 @@
       <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -34850,8 +34855,9 @@
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -34861,8 +34867,9 @@
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -34872,8 +34879,9 @@
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -34883,8 +34891,9 @@
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -34894,8 +34903,9 @@
       <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
@@ -34905,8 +34915,9 @@
       <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -34916,8 +34927,9 @@
       <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -34927,8 +34939,9 @@
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
@@ -34938,8 +34951,9 @@
       <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
@@ -34949,8 +34963,9 @@
       <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
@@ -34960,8 +34975,9 @@
       <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
@@ -34971,8 +34987,9 @@
       <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -34982,8 +34999,9 @@
       <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -34993,8 +35011,9 @@
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -35004,8 +35023,9 @@
       <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
@@ -35015,8 +35035,9 @@
       <c r="C28" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
@@ -35026,8 +35047,9 @@
       <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -35037,8 +35059,9 @@
       <c r="C30" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>84</v>
       </c>
@@ -35048,8 +35071,9 @@
       <c r="C31" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>86</v>
       </c>
@@ -35059,8 +35083,9 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
@@ -35070,8 +35095,9 @@
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>90</v>
       </c>
@@ -35081,8 +35107,9 @@
       <c r="C34" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>92</v>
       </c>
@@ -35092,8 +35119,9 @@
       <c r="C35" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
@@ -35103,8 +35131,9 @@
       <c r="C36" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>96</v>
       </c>
@@ -35114,8 +35143,9 @@
       <c r="C37" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>98</v>
       </c>
@@ -35125,8 +35155,9 @@
       <c r="C38" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>100</v>
       </c>
@@ -35136,8 +35167,9 @@
       <c r="C39" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>102</v>
       </c>
@@ -35147,8 +35179,9 @@
       <c r="C40" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>104</v>
       </c>
@@ -35158,8 +35191,9 @@
       <c r="C41" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>106</v>
       </c>
@@ -35169,8 +35203,9 @@
       <c r="C42" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>108</v>
       </c>
@@ -35180,8 +35215,9 @@
       <c r="C43" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>110</v>
       </c>
@@ -35191,8 +35227,9 @@
       <c r="C44" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>112</v>
       </c>
@@ -35202,8 +35239,9 @@
       <c r="C45" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>114</v>
       </c>
@@ -35213,8 +35251,9 @@
       <c r="C46" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>116</v>
       </c>
@@ -35224,8 +35263,9 @@
       <c r="C47" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>118</v>
       </c>
@@ -35235,8 +35275,9 @@
       <c r="C48" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>120</v>
       </c>
@@ -35246,8 +35287,9 @@
       <c r="C49" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>122</v>
       </c>
@@ -35257,8 +35299,9 @@
       <c r="C50" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>124</v>
       </c>
@@ -35268,8 +35311,9 @@
       <c r="C51" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>126</v>
       </c>
@@ -35279,8 +35323,9 @@
       <c r="C52" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>128</v>
       </c>
@@ -35290,8 +35335,9 @@
       <c r="C53" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>130</v>
       </c>
@@ -35301,8 +35347,9 @@
       <c r="C54" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>132</v>
       </c>
@@ -35312,8 +35359,9 @@
       <c r="C55" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>134</v>
       </c>
@@ -35323,8 +35371,9 @@
       <c r="C56" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>136</v>
       </c>
@@ -35334,8 +35383,9 @@
       <c r="C57" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>138</v>
       </c>
@@ -35345,8 +35395,9 @@
       <c r="C58" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>140</v>
       </c>
@@ -35356,8 +35407,9 @@
       <c r="C59" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>142</v>
       </c>
@@ -35367,8 +35419,9 @@
       <c r="C60" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>144</v>
       </c>
@@ -35378,8 +35431,9 @@
       <c r="C61" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>146</v>
       </c>
@@ -35389,8 +35443,9 @@
       <c r="C62" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>148</v>
       </c>
@@ -35400,8 +35455,9 @@
       <c r="C63" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>150</v>
       </c>
@@ -35411,8 +35467,9 @@
       <c r="C64" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>152</v>
       </c>
@@ -35422,8 +35479,9 @@
       <c r="C65" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>154</v>
       </c>
@@ -35433,8 +35491,9 @@
       <c r="C66" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>156</v>
       </c>
@@ -35444,8 +35503,9 @@
       <c r="C67" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>158</v>
       </c>
@@ -35455,8 +35515,9 @@
       <c r="C68" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>160</v>
       </c>
@@ -35466,8 +35527,9 @@
       <c r="C69" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>162</v>
       </c>
@@ -35477,8 +35539,9 @@
       <c r="C70" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>164</v>
       </c>
@@ -35488,8 +35551,9 @@
       <c r="C71" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>166</v>
       </c>
@@ -35499,8 +35563,9 @@
       <c r="C72" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>168</v>
       </c>
@@ -35510,8 +35575,9 @@
       <c r="C73" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>170</v>
       </c>
@@ -35521,8 +35587,9 @@
       <c r="C74" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>172</v>
       </c>
@@ -35532,8 +35599,9 @@
       <c r="C75" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>174</v>
       </c>
@@ -35543,8 +35611,9 @@
       <c r="C76" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>176</v>
       </c>
@@ -35554,8 +35623,9 @@
       <c r="C77" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>178</v>
       </c>
@@ -35565,8 +35635,9 @@
       <c r="C78" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>180</v>
       </c>
@@ -35576,8 +35647,9 @@
       <c r="C79" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>182</v>
       </c>
@@ -35587,8 +35659,9 @@
       <c r="C80" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>184</v>
       </c>
@@ -35598,8 +35671,9 @@
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>186</v>
       </c>
@@ -35609,8 +35683,9 @@
       <c r="C82" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>188</v>
       </c>
@@ -35620,8 +35695,9 @@
       <c r="C83" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>190</v>
       </c>
@@ -35631,8 +35707,9 @@
       <c r="C84" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>192</v>
       </c>
@@ -35642,8 +35719,9 @@
       <c r="C85" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>194</v>
       </c>
@@ -35653,8 +35731,9 @@
       <c r="C86" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>196</v>
       </c>
@@ -35664,8 +35743,9 @@
       <c r="C87" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>198</v>
       </c>
@@ -35675,8 +35755,9 @@
       <c r="C88" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>200</v>
       </c>
@@ -35686,8 +35767,9 @@
       <c r="C89" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>202</v>
       </c>
@@ -35697,8 +35779,9 @@
       <c r="C90" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>204</v>
       </c>
@@ -35708,8 +35791,9 @@
       <c r="C91" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>206</v>
       </c>
@@ -35719,8 +35803,9 @@
       <c r="C92" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>208</v>
       </c>
@@ -35730,8 +35815,9 @@
       <c r="C93" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>209</v>
       </c>
@@ -35741,8 +35827,9 @@
       <c r="C94" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>211</v>
       </c>
@@ -35752,8 +35839,9 @@
       <c r="C95" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>213</v>
       </c>
@@ -35763,8 +35851,9 @@
       <c r="C96" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>215</v>
       </c>
@@ -35774,8 +35863,9 @@
       <c r="C97" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>217</v>
       </c>
@@ -35785,8 +35875,9 @@
       <c r="C98" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>219</v>
       </c>
@@ -35796,8 +35887,9 @@
       <c r="C99" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>221</v>
       </c>
@@ -35807,8 +35899,9 @@
       <c r="C100" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>223</v>
       </c>
@@ -35818,8 +35911,9 @@
       <c r="C101" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>225</v>
       </c>
@@ -35829,8 +35923,9 @@
       <c r="C102" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>227</v>
       </c>
@@ -35840,8 +35935,9 @@
       <c r="C103" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>229</v>
       </c>
@@ -35851,8 +35947,9 @@
       <c r="C104" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>231</v>
       </c>
@@ -35862,8 +35959,9 @@
       <c r="C105" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>233</v>
       </c>
@@ -35873,8 +35971,9 @@
       <c r="C106" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>235</v>
       </c>
@@ -35884,8 +35983,9 @@
       <c r="C107" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>237</v>
       </c>
@@ -35895,8 +35995,9 @@
       <c r="C108" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>239</v>
       </c>
@@ -35906,8 +36007,9 @@
       <c r="C109" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>241</v>
       </c>
@@ -35917,8 +36019,9 @@
       <c r="C110" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>243</v>
       </c>
@@ -35928,8 +36031,9 @@
       <c r="C111" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>245</v>
       </c>
@@ -35939,8 +36043,9 @@
       <c r="C112" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>212</v>
       </c>
@@ -35950,8 +36055,9 @@
       <c r="C113" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>249</v>
       </c>
@@ -35961,8 +36067,9 @@
       <c r="C114" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>87</v>
       </c>
@@ -35972,8 +36079,9 @@
       <c r="C115" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>35</v>
       </c>
@@ -35983,8 +36091,9 @@
       <c r="C116" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>41</v>
       </c>
@@ -35994,8 +36103,9 @@
       <c r="C117" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>57</v>
       </c>
@@ -36005,8 +36115,9 @@
       <c r="C118" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>59</v>
       </c>
@@ -36016,8 +36127,9 @@
       <c r="C119" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>63</v>
       </c>
@@ -36027,8 +36139,9 @@
       <c r="C120" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>83</v>
       </c>
@@ -36038,8 +36151,9 @@
       <c r="C121" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>105</v>
       </c>
@@ -36049,8 +36163,9 @@
       <c r="C122" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>109</v>
       </c>
@@ -36060,8 +36175,9 @@
       <c r="C123" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>117</v>
       </c>
@@ -36071,8 +36187,9 @@
       <c r="C124" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>257</v>
       </c>
@@ -36082,8 +36199,9 @@
       <c r="C125" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>147</v>
       </c>
@@ -36093,8 +36211,9 @@
       <c r="C126" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>260</v>
       </c>
@@ -36104,8 +36223,9 @@
       <c r="C127" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>205</v>
       </c>
@@ -36115,8 +36235,9 @@
       <c r="C128" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>1</v>
       </c>
@@ -36126,8 +36247,9 @@
       <c r="C129" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>214</v>
       </c>
@@ -36137,8 +36259,9 @@
       <c r="C130" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>1276</v>
       </c>
@@ -36148,8 +36271,10 @@
       <c r="C131" s="1" t="s">
         <v>247</v>
       </c>
+      <c r="D131" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C131"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
